--- a/data/trans_bre/MCS12_SP_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>10.97944146770211</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.619537584552133</v>
+        <v>1.619537584552122</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2726475498354547</v>
@@ -649,7 +649,7 @@
         <v>0.1955092991531631</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.04817933579354597</v>
+        <v>0.04817933579354563</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.821792090841984</v>
+        <v>1.644151540018325</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.13658948601013</v>
+        <v>11.0014979023098</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.475096847571163</v>
+        <v>2.433641452088285</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.43861535950516</v>
+        <v>-5.851433359617104</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04313385378067908</v>
+        <v>0.03874403713728471</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1854041928545856</v>
+        <v>0.1853735932481334</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0589015193417092</v>
+        <v>0.039931612116257</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1430969268418543</v>
+        <v>-0.1500956357689862</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.83102523790904</v>
+        <v>19.83644533387296</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>26.88406825317568</v>
+        <v>26.98657315873456</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.89359889767993</v>
+        <v>19.0078383017108</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.07925082533354</v>
+        <v>8.878185826543769</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5504703083650148</v>
+        <v>0.5501308015459047</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5207712963957922</v>
+        <v>0.5322179815381352</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3714264107019579</v>
+        <v>0.3639403813223203</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.266679923693715</v>
+        <v>0.3050105459878779</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.553671754521477</v>
+        <v>6.496311235116131</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>10.45060374439756</v>
+        <v>10.33068089911522</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.385451113082261</v>
+        <v>2.441729393752395</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.664446232054307</v>
+        <v>2.941777690299856</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1079993467428488</v>
+        <v>0.1089968864221883</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3562856829609697</v>
+        <v>0.3657660536464262</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09693743166455852</v>
+        <v>0.09768840809436494</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1131103220296229</v>
+        <v>0.0933716628966738</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18.84445676056469</v>
+        <v>18.6156147747874</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>23.18352726202118</v>
+        <v>22.35112346170335</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.92077162511526</v>
+        <v>13.39110515338926</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15.55780590549717</v>
+        <v>15.34952001026877</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3610319319128178</v>
+        <v>0.3558692132128433</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.046162701697917</v>
+        <v>1.00756330380739</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7522090203701969</v>
+        <v>0.7319387999390095</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6313654525313788</v>
+        <v>0.6389862748082774</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.022594228523174</v>
+        <v>6.347636739339792</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.627606402305426</v>
+        <v>8.892649195068458</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.716724515496654</v>
+        <v>4.150474079375607</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.714118830353245</v>
+        <v>3.173460164606036</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1918642483559002</v>
+        <v>0.2051136969995697</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1551325565416051</v>
+        <v>0.1612463157106596</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08931667306772634</v>
+        <v>0.07824922034082554</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1146727150748282</v>
+        <v>0.0982866771003176</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.92374040639829</v>
+        <v>21.00452803281307</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>25.3235173623342</v>
+        <v>23.89883995958146</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20.19520541650643</v>
+        <v>18.80528025188944</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.25654897579885</v>
+        <v>16.28303692721527</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8831990322754474</v>
+        <v>0.9270295593488276</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5688834866593776</v>
+        <v>0.537035420871618</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.465963862830626</v>
+        <v>0.4233604225949567</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6699646034682851</v>
+        <v>0.6552495015117212</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>10.03669637901265</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9.667617451275751</v>
+        <v>9.667617451275746</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2084599447005587</v>
@@ -949,7 +949,7 @@
         <v>0.2273441946715519</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3053452421949458</v>
+        <v>0.3053452421949456</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.52556662007479</v>
+        <v>1.543017696058743</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.662558476136018</v>
+        <v>3.520123953086901</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.911772784256172</v>
+        <v>1.910109296776657</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.737249425344456</v>
+        <v>1.97210875924653</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02873756081226344</v>
+        <v>0.03312780761132851</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05513528940866801</v>
+        <v>0.04935673996728029</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05707605386028087</v>
+        <v>0.03861005881616786</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.04447872000724521</v>
+        <v>0.04982768850999533</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.59278571238659</v>
+        <v>15.96876166647895</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.624903596971</v>
+        <v>17.09647647255517</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.76913819974632</v>
+        <v>17.61718830745438</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.55019144739569</v>
+        <v>17.20543782998848</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4328343682564074</v>
+        <v>0.4170071714264053</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2988036580443375</v>
+        <v>0.285578876194432</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4344904158589476</v>
+        <v>0.4383548561632221</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6766935404436897</v>
+        <v>0.6300624989698953</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.092612540210725</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.126011498601127</v>
+        <v>8.126011498601093</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2485039380991262</v>
@@ -1049,7 +1049,7 @@
         <v>0.01259603842288603</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.108432867180693</v>
+        <v>0.1084328671806925</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.392693849465647</v>
+        <v>2.150540622664985</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.938421065656633</v>
+        <v>3.758949765835424</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.456005625844393</v>
+        <v>-5.362746708297029</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.338687433925986</v>
+        <v>1.295281264909736</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04325090916738575</v>
+        <v>0.03868017550520682</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09278079905667262</v>
+        <v>0.09398807808225738</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.06076944761132586</v>
+        <v>-0.05901840185352063</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.02007780437413726</v>
+        <v>0.01546954982300778</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.25107074804914</v>
+        <v>22.1229804728764</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.6650984064872</v>
+        <v>22.49587062133294</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.240146707666963</v>
+        <v>7.48665048087906</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.95867431278353</v>
+        <v>15.15116300609946</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5048144323275534</v>
+        <v>0.5153259452314095</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7512386599092403</v>
+        <v>0.7089083062336826</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08754830259607776</v>
+        <v>0.09096085458520077</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2161337134696484</v>
+        <v>0.2138274465305173</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>10.66558002075867</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.432443333121793</v>
+        <v>3.432443333121782</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3641524977637395</v>
@@ -1149,7 +1149,7 @@
         <v>0.3058244838166485</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1001845596257121</v>
+        <v>0.1001845596257118</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.772877143895295</v>
+        <v>3.954259162311445</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.182454489550566</v>
+        <v>0.1868585409020664</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.951854146551771</v>
+        <v>2.315464610153104</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.266331122978992</v>
+        <v>-2.979552005550642</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09538767299330339</v>
+        <v>0.09908318360813734</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01835555565899319</v>
+        <v>0.003378903894415993</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0684281319010946</v>
+        <v>0.05160145829736795</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.08792027743561384</v>
+        <v>-0.08172614187502311</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>20.17321165226858</v>
+        <v>20.11919758141624</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>17.36336057280367</v>
+        <v>17.70214368073865</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19.79653822924223</v>
+        <v>19.59962513515362</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10.0018340362588</v>
+        <v>10.10742164005652</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6727127298465665</v>
+        <v>0.6669719379032782</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.349738338848409</v>
+        <v>0.3652752375700638</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6367231142158597</v>
+        <v>0.6243939894035655</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3296855273752322</v>
+        <v>0.3270564186202425</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>4.460341609379837</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11.80076387155785</v>
+        <v>11.80076387155784</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3889133675816682</v>
@@ -1249,7 +1249,7 @@
         <v>0.0841580116663202</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2297286026633427</v>
+        <v>0.2297286026633424</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.572146653129362</v>
+        <v>7.810623578558107</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.828316964016914</v>
+        <v>4.649574207348802</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.9567444199797069</v>
+        <v>-1.695614255269345</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.381106557139675</v>
+        <v>6.396170822872263</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2235555112281055</v>
+        <v>0.2063902911435274</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08226827927824376</v>
+        <v>0.0781389739329854</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.01940422694097474</v>
+        <v>-0.02995736581497093</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1182386790575666</v>
+        <v>0.1145696706945937</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.61128167641484</v>
+        <v>18.89570499376157</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.90447623850034</v>
+        <v>15.67790079382412</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.689829105816061</v>
+        <v>9.372028083631264</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.14957391398386</v>
+        <v>17.52039661808681</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6017662117494781</v>
+        <v>0.584396731741708</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3057504082575923</v>
+        <v>0.3027188992827639</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1901858798851762</v>
+        <v>0.188640347699179</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3622759579908034</v>
+        <v>0.3700242060387535</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>2.684727395846953</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9.250016937648464</v>
+        <v>9.250016937648486</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1281087991980147</v>
@@ -1349,7 +1349,7 @@
         <v>0.04957992745830554</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1842223485572601</v>
+        <v>0.1842223485572605</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.701496227115867</v>
+        <v>1.509455148615789</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>6.328231561233376</v>
+        <v>6.243133247492791</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-2.160511049288629</v>
+        <v>-2.551466072008118</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4.503503629591145</v>
+        <v>4.41957858566421</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03081365606053783</v>
+        <v>0.02990314529992842</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1175818828979885</v>
+        <v>0.1184495158424019</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.03684413749293853</v>
+        <v>-0.04431765314091766</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.08324739925368928</v>
+        <v>0.0833301239814644</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11.70513549109814</v>
+        <v>11.4582540066946</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>16.74814982088569</v>
+        <v>16.26449693371182</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.871800016397247</v>
+        <v>7.697125461121089</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>14.79533427182197</v>
+        <v>14.07205217599939</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2390421445048629</v>
+        <v>0.2348598493168128</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3505964079929428</v>
+        <v>0.3412915361358658</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1542411101088827</v>
+        <v>0.1477057842358044</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.313585436242364</v>
+        <v>0.3021739251767684</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>6.689340601256877</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8.916159540194124</v>
+        <v>8.916159540194107</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2536280142677875</v>
@@ -1449,7 +1449,7 @@
         <v>0.1389227772130325</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.2130632260207484</v>
+        <v>0.213063226020748</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>8.496454864786944</v>
+        <v>8.27186963883392</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>10.44198655559807</v>
+        <v>10.45094321600539</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.265131362918179</v>
+        <v>4.112293457390087</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.381742684872338</v>
+        <v>6.370846888032639</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1920058099459528</v>
+        <v>0.1845962940528817</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2060325587077078</v>
+        <v>0.2084568939828933</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08506395884663068</v>
+        <v>0.08265335010452546</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.1484498014621805</v>
+        <v>0.148037579957485</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>13.3513091884383</v>
+        <v>13.39761422977383</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.21120812748649</v>
+        <v>15.32279503468963</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.220400132376907</v>
+        <v>9.138957515115139</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.29268359351354</v>
+        <v>11.20964209321603</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3196240248528751</v>
+        <v>0.3200201187212331</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3188933761648428</v>
+        <v>0.3245198904802439</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.19553037846643</v>
+        <v>0.1954381134740267</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.2813885915682004</v>
+        <v>0.2794918160215936</v>
       </c>
     </row>
     <row r="31">
